--- a/data/trans_orig/IP25A02_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP25A02_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{323EA28D-A2EE-4D38-BF58-6A9764720D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2AE14DD-2C45-417E-BC70-3F0595F3CAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{40D4A68E-ED51-41E7-B3E1-568115413D82}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9064CCFD-9505-463E-BF6A-87F10F1731E1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -68,6 +68,36 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Menos de 1h</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
     <t>De 1 a 2h</t>
   </si>
   <si>
@@ -128,36 +158,6 @@
     <t>10,61%</t>
   </si>
   <si>
-    <t>Menos de 1h</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
     <t>Más de 3h</t>
   </si>
   <si>
@@ -188,9 +188,147 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
     <t>30,75%</t>
   </si>
   <si>
@@ -245,33 +383,6 @@
     <t>35,85%</t>
   </si>
   <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
     <t>25,91%</t>
   </si>
   <si>
@@ -299,115 +410,31 @@
     <t>28,57%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
   </si>
   <si>
     <t>29,52%</t>
@@ -462,33 +489,6 @@
   </si>
   <si>
     <t>28,99%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
   </si>
   <si>
     <t>19,11%</t>
@@ -907,7 +907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB9ADE7-7241-4F30-B374-C1F51AC5AF7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E168422-8E1A-48E7-95EB-D3BE7D8FD066}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1025,10 +1025,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="D4" s="7">
-        <v>23824</v>
+        <v>77848</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1040,10 +1040,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="I4" s="7">
-        <v>17921</v>
+        <v>65900</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1055,10 +1055,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="N4" s="7">
-        <v>41745</v>
+        <v>143748</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1076,10 +1076,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D5" s="7">
-        <v>8507</v>
+        <v>23824</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1091,10 +1091,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="I5" s="7">
-        <v>7098</v>
+        <v>17921</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1106,10 +1106,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="N5" s="7">
-        <v>15605</v>
+        <v>41745</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1127,10 +1127,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7">
-        <v>77848</v>
+        <v>8507</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1142,10 +1142,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="I6" s="7">
-        <v>65900</v>
+        <v>7098</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1157,10 +1157,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>281</v>
+        <v>29</v>
       </c>
       <c r="N6" s="7">
-        <v>143748</v>
+        <v>15605</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1190,7 +1190,7 @@
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -1282,10 +1282,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D9" s="7">
-        <v>122330</v>
+        <v>54587</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1297,10 +1297,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="I9" s="7">
-        <v>96322</v>
+        <v>67976</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1312,10 +1312,10 @@
         <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>278</v>
+        <v>180</v>
       </c>
       <c r="N9" s="7">
-        <v>218651</v>
+        <v>122563</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1333,10 +1333,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="D10" s="7">
-        <v>129461</v>
+        <v>65627</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1348,10 +1348,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="I10" s="7">
-        <v>114333</v>
+        <v>65635</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1363,10 +1363,10 @@
         <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>313</v>
+        <v>182</v>
       </c>
       <c r="N10" s="7">
-        <v>243794</v>
+        <v>131262</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1384,10 +1384,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7">
-        <v>42930</v>
+        <v>55137</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>69</v>
@@ -1399,10 +1399,10 @@
         <v>71</v>
       </c>
       <c r="H11" s="7">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="I11" s="7">
-        <v>57710</v>
+        <v>47059</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>72</v>
@@ -1414,10 +1414,10 @@
         <v>74</v>
       </c>
       <c r="M11" s="7">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="N11" s="7">
-        <v>100640</v>
+        <v>102196</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>75</v>
@@ -1435,10 +1435,10 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="D12" s="7">
-        <v>103064</v>
+        <v>29704</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>78</v>
@@ -1450,10 +1450,10 @@
         <v>80</v>
       </c>
       <c r="H12" s="7">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="I12" s="7">
-        <v>77415</v>
+        <v>16086</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>81</v>
@@ -1465,10 +1465,10 @@
         <v>83</v>
       </c>
       <c r="M12" s="7">
-        <v>203</v>
+        <v>62</v>
       </c>
       <c r="N12" s="7">
-        <v>180480</v>
+        <v>45790</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>84</v>
@@ -1486,10 +1486,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>475</v>
+        <v>271</v>
       </c>
       <c r="D13" s="7">
-        <v>397785</v>
+        <v>205055</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>49</v>
@@ -1501,10 +1501,10 @@
         <v>49</v>
       </c>
       <c r="H13" s="7">
-        <v>456</v>
+        <v>279</v>
       </c>
       <c r="I13" s="7">
-        <v>345780</v>
+        <v>196756</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>49</v>
@@ -1516,10 +1516,10 @@
         <v>49</v>
       </c>
       <c r="M13" s="7">
-        <v>931</v>
+        <v>550</v>
       </c>
       <c r="N13" s="7">
-        <v>743565</v>
+        <v>401811</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>49</v>
@@ -1539,10 +1539,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D14" s="7">
-        <v>65627</v>
+        <v>42930</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -1554,10 +1554,10 @@
         <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I14" s="7">
-        <v>65635</v>
+        <v>57710</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -1569,10 +1569,10 @@
         <v>93</v>
       </c>
       <c r="M14" s="7">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="N14" s="7">
-        <v>131262</v>
+        <v>100640</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
@@ -1590,10 +1590,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="D15" s="7">
-        <v>55137</v>
+        <v>122330</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>97</v>
@@ -1605,10 +1605,10 @@
         <v>99</v>
       </c>
       <c r="H15" s="7">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="I15" s="7">
-        <v>47059</v>
+        <v>96322</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>100</v>
@@ -1620,10 +1620,10 @@
         <v>102</v>
       </c>
       <c r="M15" s="7">
-        <v>126</v>
+        <v>278</v>
       </c>
       <c r="N15" s="7">
-        <v>102196</v>
+        <v>218651</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>103</v>
@@ -1641,10 +1641,10 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="D16" s="7">
-        <v>54587</v>
+        <v>129461</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>106</v>
@@ -1656,10 +1656,10 @@
         <v>108</v>
       </c>
       <c r="H16" s="7">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="I16" s="7">
-        <v>67976</v>
+        <v>114333</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>109</v>
@@ -1671,10 +1671,10 @@
         <v>111</v>
       </c>
       <c r="M16" s="7">
-        <v>180</v>
+        <v>313</v>
       </c>
       <c r="N16" s="7">
-        <v>122563</v>
+        <v>243794</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>112</v>
@@ -1692,10 +1692,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="D17" s="7">
-        <v>29704</v>
+        <v>103064</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>115</v>
@@ -1707,10 +1707,10 @@
         <v>117</v>
       </c>
       <c r="H17" s="7">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="I17" s="7">
-        <v>16086</v>
+        <v>77415</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>118</v>
@@ -1722,10 +1722,10 @@
         <v>120</v>
       </c>
       <c r="M17" s="7">
-        <v>62</v>
+        <v>203</v>
       </c>
       <c r="N17" s="7">
-        <v>45790</v>
+        <v>180480</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>121</v>
@@ -1743,10 +1743,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>271</v>
+        <v>475</v>
       </c>
       <c r="D18" s="7">
-        <v>205055</v>
+        <v>397785</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>49</v>
@@ -1758,10 +1758,10 @@
         <v>49</v>
       </c>
       <c r="H18" s="7">
-        <v>279</v>
+        <v>456</v>
       </c>
       <c r="I18" s="7">
-        <v>196756</v>
+        <v>345780</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>49</v>
@@ -1773,10 +1773,10 @@
         <v>49</v>
       </c>
       <c r="M18" s="7">
-        <v>550</v>
+        <v>931</v>
       </c>
       <c r="N18" s="7">
-        <v>401811</v>
+        <v>743565</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>49</v>
@@ -1796,10 +1796,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="D19" s="7">
-        <v>211780</v>
+        <v>175365</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>124</v>
@@ -1811,10 +1811,10 @@
         <v>126</v>
       </c>
       <c r="H19" s="7">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="I19" s="7">
-        <v>179878</v>
+        <v>191586</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>127</v>
@@ -1826,10 +1826,10 @@
         <v>129</v>
       </c>
       <c r="M19" s="7">
-        <v>539</v>
+        <v>598</v>
       </c>
       <c r="N19" s="7">
-        <v>391658</v>
+        <v>366952</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>130</v>
@@ -1847,10 +1847,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="D20" s="7">
-        <v>193105</v>
+        <v>211780</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>133</v>
@@ -1862,10 +1862,10 @@
         <v>135</v>
       </c>
       <c r="H20" s="7">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="I20" s="7">
-        <v>168490</v>
+        <v>179878</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>136</v>
@@ -1877,10 +1877,10 @@
         <v>138</v>
       </c>
       <c r="M20" s="7">
-        <v>468</v>
+        <v>539</v>
       </c>
       <c r="N20" s="7">
-        <v>361595</v>
+        <v>391658</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>139</v>
@@ -1898,10 +1898,10 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="D21" s="7">
-        <v>175365</v>
+        <v>193105</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>142</v>
@@ -1913,10 +1913,10 @@
         <v>144</v>
       </c>
       <c r="H21" s="7">
-        <v>306</v>
+        <v>227</v>
       </c>
       <c r="I21" s="7">
-        <v>191586</v>
+        <v>168490</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>145</v>
@@ -1928,10 +1928,10 @@
         <v>147</v>
       </c>
       <c r="M21" s="7">
-        <v>598</v>
+        <v>468</v>
       </c>
       <c r="N21" s="7">
-        <v>366952</v>
+        <v>361595</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>148</v>

--- a/data/trans_orig/IP25A02_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP25A02_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2AE14DD-2C45-417E-BC70-3F0595F3CAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DB32FDA-E0F1-43C1-AC7B-F6AC33E5E2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9064CCFD-9505-463E-BF6A-87F10F1731E1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{706749F2-013D-4BB4-BFF8-DC6E47A823E6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="160">
-  <si>
-    <t>Menores según el número de horas al día que emplean en utilizar aparatos electrónicos en fines de semana / solo 2023 en 2023 (Tasa respuesta: 98,07%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="196">
+  <si>
+    <t>Menores según el número de horas al día que emplean en ver la televisión en fines de semana en 2023 (Tasa respuesta: 98,91%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,457 +65,565 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Más de 3h</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>De 2 a 3h</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>De 1 a 2h</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
   </si>
   <si>
     <t>Menos de 1h</t>
   </si>
   <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>De 1 a 2h</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
   </si>
   <si>
     <t>24,92%</t>
   </si>
   <si>
-    <t>De 2 a 3h</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>Más de 3h</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -526,7 +634,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -622,39 +730,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -706,7 +814,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -817,13 +925,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -832,6 +933,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -896,19 +1004,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E168422-8E1A-48E7-95EB-D3BE7D8FD066}">
-  <dimension ref="A1:Q23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E2EB01-89EB-4054-B93A-19C474DB11F6}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1025,10 +1153,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>152</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>77848</v>
+        <v>1549</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1040,163 +1168,163 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>65900</v>
+        <v>1165</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2714</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>281</v>
-      </c>
-      <c r="N4" s="7">
-        <v>143748</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7">
+        <v>6922</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>45</v>
-      </c>
-      <c r="D5" s="7">
-        <v>23824</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>11</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6099</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>34</v>
-      </c>
-      <c r="I5" s="7">
-        <v>17921</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>24</v>
+      </c>
+      <c r="N5" s="7">
+        <v>13021</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="7">
-        <v>79</v>
-      </c>
-      <c r="N5" s="7">
-        <v>41745</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>16</v>
-      </c>
       <c r="D6" s="7">
-        <v>8507</v>
+        <v>15775</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>20</v>
+      </c>
+      <c r="I6" s="7">
+        <v>11792</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7">
-        <v>13</v>
-      </c>
-      <c r="I6" s="7">
-        <v>7098</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>50</v>
+      </c>
+      <c r="N6" s="7">
+        <v>27567</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="7">
-        <v>29</v>
-      </c>
-      <c r="N6" s="7">
-        <v>15605</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="7">
+        <v>67</v>
+      </c>
+      <c r="D7" s="7">
+        <v>32573</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="7">
-        <v>7</v>
-      </c>
-      <c r="D7" s="7">
-        <v>4289</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="I7" s="7">
-        <v>3378</v>
+        <v>36827</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>43</v>
@@ -1208,10 +1336,10 @@
         <v>45</v>
       </c>
       <c r="M7" s="7">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="N7" s="7">
-        <v>7667</v>
+        <v>69400</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>46</v>
@@ -1229,10 +1357,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>220</v>
+        <v>112</v>
       </c>
       <c r="D8" s="7">
-        <v>114468</v>
+        <v>56819</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -1244,10 +1372,10 @@
         <v>49</v>
       </c>
       <c r="H8" s="7">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="I8" s="7">
-        <v>94297</v>
+        <v>55884</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>49</v>
@@ -1259,10 +1387,10 @@
         <v>49</v>
       </c>
       <c r="M8" s="7">
-        <v>402</v>
+        <v>218</v>
       </c>
       <c r="N8" s="7">
-        <v>208765</v>
+        <v>112702</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>49</v>
@@ -1282,10 +1410,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="D9" s="7">
-        <v>54587</v>
+        <v>13185</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1294,190 +1422,190 @@
         <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="7">
+        <v>18</v>
+      </c>
+      <c r="I9" s="7">
+        <v>11701</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="7">
-        <v>101</v>
-      </c>
-      <c r="I9" s="7">
-        <v>67976</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>37</v>
+      </c>
+      <c r="N9" s="7">
+        <v>24886</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="7">
-        <v>180</v>
-      </c>
-      <c r="N9" s="7">
-        <v>122563</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="D10" s="7">
-        <v>65627</v>
+        <v>38748</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>47</v>
+      </c>
+      <c r="I10" s="7">
+        <v>28500</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="7">
-        <v>95</v>
-      </c>
-      <c r="I10" s="7">
-        <v>65635</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>104</v>
+      </c>
+      <c r="N10" s="7">
+        <v>67248</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="7">
-        <v>182</v>
-      </c>
-      <c r="N10" s="7">
-        <v>131262</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="D11" s="7">
-        <v>55137</v>
+        <v>67940</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>100</v>
+      </c>
+      <c r="I11" s="7">
+        <v>66090</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="7">
-        <v>60</v>
-      </c>
-      <c r="I11" s="7">
-        <v>47059</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>205</v>
+      </c>
+      <c r="N11" s="7">
+        <v>134030</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M11" s="7">
-        <v>126</v>
-      </c>
-      <c r="N11" s="7">
-        <v>102196</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="D12" s="7">
-        <v>29704</v>
+        <v>55426</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>88</v>
+      </c>
+      <c r="I12" s="7">
+        <v>48989</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="7">
-        <v>23</v>
-      </c>
-      <c r="I12" s="7">
-        <v>16086</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>183</v>
+      </c>
+      <c r="N12" s="7">
+        <v>104415</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M12" s="7">
-        <v>62</v>
-      </c>
-      <c r="N12" s="7">
-        <v>45790</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1486,10 +1614,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D13" s="7">
-        <v>205055</v>
+        <v>175299</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>49</v>
@@ -1501,10 +1629,10 @@
         <v>49</v>
       </c>
       <c r="H13" s="7">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="I13" s="7">
-        <v>196756</v>
+        <v>155280</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>49</v>
@@ -1516,10 +1644,10 @@
         <v>49</v>
       </c>
       <c r="M13" s="7">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="N13" s="7">
-        <v>401811</v>
+        <v>330579</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>49</v>
@@ -1533,208 +1661,208 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D14" s="7">
-        <v>42930</v>
+        <v>14966</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>21</v>
+      </c>
+      <c r="I14" s="7">
+        <v>17827</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="7">
-        <v>76</v>
-      </c>
-      <c r="I14" s="7">
-        <v>57710</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>38</v>
+      </c>
+      <c r="N14" s="7">
+        <v>32794</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M14" s="7">
-        <v>137</v>
-      </c>
-      <c r="N14" s="7">
-        <v>100640</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="D15" s="7">
-        <v>122330</v>
+        <v>47682</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7">
+        <v>48</v>
+      </c>
+      <c r="I15" s="7">
+        <v>37491</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H15" s="7">
-        <v>130</v>
-      </c>
-      <c r="I15" s="7">
-        <v>96322</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>106</v>
+      </c>
+      <c r="N15" s="7">
+        <v>85173</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M15" s="7">
-        <v>278</v>
-      </c>
-      <c r="N15" s="7">
-        <v>218651</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="D16" s="7">
-        <v>129461</v>
+        <v>90857</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>102</v>
+      </c>
+      <c r="I16" s="7">
+        <v>74836</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="7">
-        <v>154</v>
-      </c>
-      <c r="I16" s="7">
-        <v>114333</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>212</v>
+      </c>
+      <c r="N16" s="7">
+        <v>165693</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="M16" s="7">
-        <v>313</v>
-      </c>
-      <c r="N16" s="7">
-        <v>243794</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="D17" s="7">
-        <v>103064</v>
+        <v>48972</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>61</v>
+      </c>
+      <c r="I17" s="7">
+        <v>45181</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="7">
-        <v>96</v>
-      </c>
-      <c r="I17" s="7">
-        <v>77415</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>119</v>
+      </c>
+      <c r="N17" s="7">
+        <v>94153</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M17" s="7">
-        <v>203</v>
-      </c>
-      <c r="N17" s="7">
-        <v>180480</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1743,40 +1871,40 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>243</v>
+      </c>
+      <c r="D18" s="7">
+        <v>202478</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="7">
+        <v>232</v>
+      </c>
+      <c r="I18" s="7">
+        <v>175335</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" s="7">
         <v>475</v>
       </c>
-      <c r="D18" s="7">
-        <v>397785</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="7">
-        <v>456</v>
-      </c>
-      <c r="I18" s="7">
-        <v>345780</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M18" s="7">
-        <v>931</v>
-      </c>
       <c r="N18" s="7">
-        <v>743565</v>
+        <v>377813</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>49</v>
@@ -1790,16 +1918,16 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>292</v>
+        <v>24</v>
       </c>
       <c r="D19" s="7">
-        <v>175365</v>
+        <v>19648</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>124</v>
@@ -1811,10 +1939,10 @@
         <v>126</v>
       </c>
       <c r="H19" s="7">
-        <v>306</v>
+        <v>19</v>
       </c>
       <c r="I19" s="7">
-        <v>191586</v>
+        <v>14665</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>127</v>
@@ -1826,10 +1954,10 @@
         <v>129</v>
       </c>
       <c r="M19" s="7">
-        <v>598</v>
+        <v>43</v>
       </c>
       <c r="N19" s="7">
-        <v>366952</v>
+        <v>34313</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>130</v>
@@ -1844,13 +1972,13 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>280</v>
+        <v>82</v>
       </c>
       <c r="D20" s="7">
-        <v>211780</v>
+        <v>68561</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>133</v>
@@ -1862,10 +1990,10 @@
         <v>135</v>
       </c>
       <c r="H20" s="7">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="I20" s="7">
-        <v>179878</v>
+        <v>55429</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>136</v>
@@ -1877,121 +2005,121 @@
         <v>138</v>
       </c>
       <c r="M20" s="7">
-        <v>539</v>
+        <v>162</v>
       </c>
       <c r="N20" s="7">
-        <v>391658</v>
+        <v>123989</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="D21" s="7">
-        <v>193105</v>
+        <v>124788</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>140</v>
+      </c>
+      <c r="I21" s="7">
+        <v>105140</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H21" s="7">
-        <v>227</v>
-      </c>
-      <c r="I21" s="7">
-        <v>168490</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>293</v>
+      </c>
+      <c r="N21" s="7">
+        <v>229928</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="M21" s="7">
-        <v>468</v>
-      </c>
-      <c r="N21" s="7">
-        <v>361595</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
+        <v>82</v>
+      </c>
+      <c r="D22" s="7">
+        <v>75059</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" s="7">
+        <v>97</v>
+      </c>
+      <c r="I22" s="7">
+        <v>80384</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="7">
-        <v>137058</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H22" s="7">
-        <v>125</v>
-      </c>
-      <c r="I22" s="7">
-        <v>96880</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>179</v>
+      </c>
+      <c r="N22" s="7">
+        <v>155443</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="M22" s="7">
-        <v>278</v>
-      </c>
-      <c r="N22" s="7">
-        <v>233938</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,10 +2128,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>966</v>
+        <v>341</v>
       </c>
       <c r="D23" s="7">
-        <v>717308</v>
+        <v>288055</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>
@@ -2015,10 +2143,10 @@
         <v>49</v>
       </c>
       <c r="H23" s="7">
-        <v>917</v>
+        <v>336</v>
       </c>
       <c r="I23" s="7">
-        <v>636834</v>
+        <v>255618</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>49</v>
@@ -2030,10 +2158,10 @@
         <v>49</v>
       </c>
       <c r="M23" s="7">
-        <v>1883</v>
+        <v>677</v>
       </c>
       <c r="N23" s="7">
-        <v>1354142</v>
+        <v>543673</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>49</v>
@@ -2045,10 +2173,273 @@
         <v>49</v>
       </c>
     </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>62</v>
+      </c>
+      <c r="D24" s="7">
+        <v>49348</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24" s="7">
+        <v>60</v>
+      </c>
+      <c r="I24" s="7">
+        <v>45358</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M24" s="7">
+        <v>122</v>
+      </c>
+      <c r="N24" s="7">
+        <v>94706</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="7">
+        <v>210</v>
+      </c>
+      <c r="D25" s="7">
+        <v>161913</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25" s="7">
+        <v>186</v>
+      </c>
+      <c r="I25" s="7">
+        <v>127519</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M25" s="7">
+        <v>396</v>
+      </c>
+      <c r="N25" s="7">
+        <v>289432</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="7">
+        <v>398</v>
+      </c>
+      <c r="D26" s="7">
+        <v>299360</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" s="7">
+        <v>362</v>
+      </c>
+      <c r="I26" s="7">
+        <v>257859</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="M26" s="7">
+        <v>760</v>
+      </c>
+      <c r="N26" s="7">
+        <v>557219</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="7">
+        <v>302</v>
+      </c>
+      <c r="D27" s="7">
+        <v>212030</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H27" s="7">
+        <v>319</v>
+      </c>
+      <c r="I27" s="7">
+        <v>211381</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M27" s="7">
+        <v>621</v>
+      </c>
+      <c r="N27" s="7">
+        <v>423411</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
+        <v>972</v>
+      </c>
+      <c r="D28" s="7">
+        <v>722651</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="7">
+        <v>927</v>
+      </c>
+      <c r="I28" s="7">
+        <v>642117</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M28" s="7">
+        <v>1899</v>
+      </c>
+      <c r="N28" s="7">
+        <v>1364768</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>195</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP25A02_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP25A02_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DB32FDA-E0F1-43C1-AC7B-F6AC33E5E2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3B15398-E076-4405-83C9-4186E3909D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{706749F2-013D-4BB4-BFF8-DC6E47A823E6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{262F074B-0E6B-4F3A-9817-F36CF8DC0E1F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="198">
   <si>
     <t>Menores según el número de horas al día que emplean en ver la televisión en fines de semana en 2023 (Tasa respuesta: 98,91%)</t>
   </si>
@@ -77,22 +77,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,22%</t>
+    <t>8,86%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>8,17%</t>
+    <t>7,4%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
   </si>
   <si>
     <t>De 2 a 3h</t>
@@ -101,526 +101,532 @@
     <t>12,18%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
   </si>
   <si>
     <t>10,91%</t>
   </si>
   <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>De 1 a 2h</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>Menos de 1h</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
     <t>5,46%</t>
   </si>
   <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>De 1 a 2h</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>Menos de 1h</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
+    <t>9,17%</t>
   </si>
   <si>
     <t>6,94%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
   </si>
   <si>
     <t>22,41%</t>
   </si>
   <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
   </si>
   <si>
     <t>19,86%</t>
   </si>
   <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
   </si>
   <si>
     <t>21,21%</t>
   </si>
   <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
   </si>
   <si>
     <t>41,43%</t>
   </si>
   <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
   </si>
   <si>
     <t>40,16%</t>
   </si>
   <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
   </si>
   <si>
     <t>40,83%</t>
   </si>
   <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
   </si>
   <si>
     <t>29,34%</t>
   </si>
   <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
   </si>
   <si>
     <t>32,92%</t>
   </si>
   <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
   </si>
   <si>
     <t>31,02%</t>
   </si>
   <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1035,7 +1041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E2EB01-89EB-4054-B93A-19C474DB11F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2141A7D-0CBA-481B-830E-62D9DBF97A5C}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1422,7 +1428,7 @@
         <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>18</v>
@@ -1431,13 +1437,13 @@
         <v>11701</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>37</v>
@@ -1446,13 +1452,13 @@
         <v>24886</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1467,13 +1473,13 @@
         <v>38748</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -1482,13 +1488,13 @@
         <v>28500</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>104</v>
@@ -1497,13 +1503,13 @@
         <v>67248</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1518,13 +1524,13 @@
         <v>67940</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>100</v>
@@ -1533,13 +1539,13 @@
         <v>66090</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>205</v>
@@ -1548,13 +1554,13 @@
         <v>134030</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1569,13 +1575,13 @@
         <v>55426</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>88</v>
@@ -1584,13 +1590,13 @@
         <v>48989</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>183</v>
@@ -1599,13 +1605,13 @@
         <v>104415</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1661,7 +1667,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1673,13 +1679,13 @@
         <v>14966</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -1688,13 +1694,13 @@
         <v>17827</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -1703,13 +1709,13 @@
         <v>32794</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,13 +1730,13 @@
         <v>47682</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>48</v>
@@ -1739,13 +1745,13 @@
         <v>37491</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>106</v>
@@ -1754,13 +1760,13 @@
         <v>85173</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,13 +1781,13 @@
         <v>90857</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>102</v>
@@ -1790,13 +1796,13 @@
         <v>74836</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>212</v>
@@ -1805,13 +1811,13 @@
         <v>165693</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,13 +1832,13 @@
         <v>48972</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -1841,13 +1847,13 @@
         <v>45181</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>119</v>
@@ -1856,13 +1862,13 @@
         <v>94153</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,7 +1924,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1930,13 +1936,13 @@
         <v>19648</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -1945,13 +1951,13 @@
         <v>14665</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -1960,13 +1966,13 @@
         <v>34313</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,13 +1987,13 @@
         <v>68561</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>80</v>
@@ -1996,13 +2002,13 @@
         <v>55429</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>162</v>
@@ -2011,13 +2017,13 @@
         <v>123989</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,13 +2038,13 @@
         <v>124788</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>140</v>
@@ -2047,13 +2053,13 @@
         <v>105140</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>293</v>
@@ -2062,13 +2068,13 @@
         <v>229928</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,13 +2089,13 @@
         <v>75059</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>97</v>
@@ -2098,13 +2104,13 @@
         <v>80384</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>179</v>
@@ -2113,13 +2119,13 @@
         <v>155443</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,13 +2193,13 @@
         <v>49348</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>60</v>
@@ -2202,13 +2208,13 @@
         <v>45358</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>122</v>
@@ -2217,13 +2223,13 @@
         <v>94706</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,13 +2244,13 @@
         <v>161913</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>186</v>
@@ -2253,13 +2259,13 @@
         <v>127519</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>396</v>
@@ -2268,13 +2274,13 @@
         <v>289432</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,13 +2295,13 @@
         <v>299360</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>362</v>
@@ -2304,13 +2310,13 @@
         <v>257859</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>760</v>
@@ -2319,13 +2325,13 @@
         <v>557219</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,13 +2346,13 @@
         <v>212030</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>319</v>
@@ -2355,13 +2361,13 @@
         <v>211381</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>621</v>
@@ -2370,13 +2376,13 @@
         <v>423411</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,7 +2438,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP25A02_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP25A02_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3B15398-E076-4405-83C9-4186E3909D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DEC83F0-44B4-47D0-A651-774352EC1780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{262F074B-0E6B-4F3A-9817-F36CF8DC0E1F}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{7ECF2A99-E7EA-4EEC-A355-8DF0AAC81F11}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="196">
   <si>
     <t>Menores según el número de horas al día que emplean en ver la televisión en fines de semana en 2023 (Tasa respuesta: 98,91%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,118 +71,118 @@
     <t>Más de 3h</t>
   </si>
   <si>
-    <t>2,73%</t>
+    <t>2,04%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
   </si>
   <si>
     <t>De 2 a 3h</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
   </si>
   <si>
     <t>De 1 a 2h</t>
   </si>
   <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
   </si>
   <si>
     <t>Menos de 1h</t>
   </si>
   <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
   </si>
   <si>
     <t>100%</t>
@@ -191,442 +191,436 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
   </si>
   <si>
     <t>31,81%</t>
   </si>
   <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
   </si>
   <si>
     <t>6,94%</t>
   </si>
   <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1041,7 +1035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2141A7D-0CBA-481B-830E-62D9DBF97A5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A97F1BC-C6F9-4FC2-B9A2-257866568A6F}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1162,7 +1156,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>1549</v>
+        <v>1146</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1177,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>1165</v>
+        <v>1701</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1192,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>2714</v>
+        <v>2847</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1210,10 +1204,10 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7">
-        <v>6922</v>
+        <v>6029</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -1225,10 +1219,10 @@
         <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I5" s="7">
-        <v>6099</v>
+        <v>6998</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>23</v>
@@ -1243,7 +1237,7 @@
         <v>24</v>
       </c>
       <c r="N5" s="7">
-        <v>13021</v>
+        <v>13028</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>26</v>
@@ -1261,10 +1255,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D6" s="7">
-        <v>15775</v>
+        <v>12031</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1276,10 +1270,10 @@
         <v>32</v>
       </c>
       <c r="H6" s="7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I6" s="7">
-        <v>11792</v>
+        <v>16827</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>33</v>
@@ -1294,7 +1288,7 @@
         <v>50</v>
       </c>
       <c r="N6" s="7">
-        <v>27567</v>
+        <v>28858</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>36</v>
@@ -1312,10 +1306,10 @@
         <v>39</v>
       </c>
       <c r="C7" s="7">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D7" s="7">
-        <v>32573</v>
+        <v>36860</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1327,10 +1321,10 @@
         <v>42</v>
       </c>
       <c r="H7" s="7">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I7" s="7">
-        <v>36827</v>
+        <v>34202</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>43</v>
@@ -1345,7 +1339,7 @@
         <v>140</v>
       </c>
       <c r="N7" s="7">
-        <v>69400</v>
+        <v>71061</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>46</v>
@@ -1363,25 +1357,25 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
+        <v>106</v>
+      </c>
+      <c r="D8" s="7">
+        <v>56066</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="7">
         <v>112</v>
       </c>
-      <c r="D8" s="7">
-        <v>56819</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="7">
-        <v>106</v>
-      </c>
       <c r="I8" s="7">
-        <v>55884</v>
+        <v>59728</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>49</v>
@@ -1396,7 +1390,7 @@
         <v>218</v>
       </c>
       <c r="N8" s="7">
-        <v>112702</v>
+        <v>115794</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>49</v>
@@ -1416,10 +1410,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>13185</v>
+        <v>11695</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1431,10 +1425,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I9" s="7">
-        <v>11701</v>
+        <v>14340</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1449,7 +1443,7 @@
         <v>37</v>
       </c>
       <c r="N9" s="7">
-        <v>24886</v>
+        <v>26035</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1467,10 +1461,10 @@
         <v>19</v>
       </c>
       <c r="C10" s="7">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D10" s="7">
-        <v>38748</v>
+        <v>28088</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1482,10 +1476,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I10" s="7">
-        <v>28500</v>
+        <v>40533</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1500,7 +1494,7 @@
         <v>104</v>
       </c>
       <c r="N10" s="7">
-        <v>67248</v>
+        <v>68621</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1518,10 +1512,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="7">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D11" s="7">
-        <v>67940</v>
+        <v>66986</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>69</v>
@@ -1533,10 +1527,10 @@
         <v>71</v>
       </c>
       <c r="H11" s="7">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I11" s="7">
-        <v>66090</v>
+        <v>70432</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>72</v>
@@ -1551,7 +1545,7 @@
         <v>205</v>
       </c>
       <c r="N11" s="7">
-        <v>134030</v>
+        <v>137418</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>75</v>
@@ -1569,10 +1563,10 @@
         <v>39</v>
       </c>
       <c r="C12" s="7">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D12" s="7">
-        <v>55426</v>
+        <v>48985</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>78</v>
@@ -1584,10 +1578,10 @@
         <v>80</v>
       </c>
       <c r="H12" s="7">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I12" s="7">
-        <v>48989</v>
+        <v>57248</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>81</v>
@@ -1602,7 +1596,7 @@
         <v>183</v>
       </c>
       <c r="N12" s="7">
-        <v>104415</v>
+        <v>106233</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>84</v>
@@ -1620,25 +1614,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>253</v>
+      </c>
+      <c r="D13" s="7">
+        <v>155754</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="7">
         <v>276</v>
       </c>
-      <c r="D13" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="7">
-        <v>253</v>
-      </c>
       <c r="I13" s="7">
-        <v>155280</v>
+        <v>182554</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>49</v>
@@ -1653,7 +1647,7 @@
         <v>529</v>
       </c>
       <c r="N13" s="7">
-        <v>330579</v>
+        <v>338308</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>49</v>
@@ -1673,10 +1667,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D14" s="7">
-        <v>14966</v>
+        <v>18552</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -1688,10 +1682,10 @@
         <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I14" s="7">
-        <v>17827</v>
+        <v>15768</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -1706,7 +1700,7 @@
         <v>38</v>
       </c>
       <c r="N14" s="7">
-        <v>32794</v>
+        <v>34321</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
@@ -1724,10 +1718,10 @@
         <v>19</v>
       </c>
       <c r="C15" s="7">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D15" s="7">
-        <v>47682</v>
+        <v>37052</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>97</v>
@@ -1739,10 +1733,10 @@
         <v>99</v>
       </c>
       <c r="H15" s="7">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I15" s="7">
-        <v>37491</v>
+        <v>49713</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>100</v>
@@ -1757,7 +1751,7 @@
         <v>106</v>
       </c>
       <c r="N15" s="7">
-        <v>85173</v>
+        <v>86764</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>103</v>
@@ -1775,10 +1769,10 @@
         <v>29</v>
       </c>
       <c r="C16" s="7">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D16" s="7">
-        <v>90857</v>
+        <v>72327</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>106</v>
@@ -1790,10 +1784,10 @@
         <v>108</v>
       </c>
       <c r="H16" s="7">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="I16" s="7">
-        <v>74836</v>
+        <v>93878</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>109</v>
@@ -1808,7 +1802,7 @@
         <v>212</v>
       </c>
       <c r="N16" s="7">
-        <v>165693</v>
+        <v>166205</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>112</v>
@@ -1826,10 +1820,10 @@
         <v>39</v>
       </c>
       <c r="C17" s="7">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D17" s="7">
-        <v>48972</v>
+        <v>44393</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>115</v>
@@ -1841,10 +1835,10 @@
         <v>117</v>
       </c>
       <c r="H17" s="7">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I17" s="7">
-        <v>45181</v>
+        <v>53130</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>118</v>
@@ -1859,7 +1853,7 @@
         <v>119</v>
       </c>
       <c r="N17" s="7">
-        <v>94153</v>
+        <v>97523</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>121</v>
@@ -1877,25 +1871,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>232</v>
+      </c>
+      <c r="D18" s="7">
+        <v>172324</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="7">
         <v>243</v>
       </c>
-      <c r="D18" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="7">
-        <v>232</v>
-      </c>
       <c r="I18" s="7">
-        <v>175335</v>
+        <v>212490</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>49</v>
@@ -1910,7 +1904,7 @@
         <v>475</v>
       </c>
       <c r="N18" s="7">
-        <v>377813</v>
+        <v>384814</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>49</v>
@@ -1930,10 +1924,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D19" s="7">
-        <v>19648</v>
+        <v>14231</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>125</v>
@@ -1945,10 +1939,10 @@
         <v>127</v>
       </c>
       <c r="H19" s="7">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I19" s="7">
-        <v>14665</v>
+        <v>20641</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>128</v>
@@ -1963,7 +1957,7 @@
         <v>43</v>
       </c>
       <c r="N19" s="7">
-        <v>34313</v>
+        <v>34872</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>131</v>
@@ -1981,10 +1975,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D20" s="7">
-        <v>68561</v>
+        <v>54034</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>134</v>
@@ -1996,10 +1990,10 @@
         <v>136</v>
       </c>
       <c r="H20" s="7">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I20" s="7">
-        <v>55429</v>
+        <v>69262</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>137</v>
@@ -2014,16 +2008,16 @@
         <v>162</v>
       </c>
       <c r="N20" s="7">
-        <v>123989</v>
+        <v>123297</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,49 +2026,49 @@
         <v>29</v>
       </c>
       <c r="C21" s="7">
+        <v>140</v>
+      </c>
+      <c r="D21" s="7">
+        <v>105367</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H21" s="7">
         <v>153</v>
       </c>
-      <c r="D21" s="7">
-        <v>124788</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="I21" s="7">
+        <v>128175</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H21" s="7">
-        <v>140</v>
-      </c>
-      <c r="I21" s="7">
-        <v>105140</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>293</v>
       </c>
       <c r="N21" s="7">
-        <v>229928</v>
+        <v>233542</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,49 +2077,49 @@
         <v>39</v>
       </c>
       <c r="C22" s="7">
+        <v>97</v>
+      </c>
+      <c r="D22" s="7">
+        <v>96804</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="7">
         <v>82</v>
       </c>
-      <c r="D22" s="7">
-        <v>75059</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="I22" s="7">
+        <v>85944</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="7">
-        <v>97</v>
-      </c>
-      <c r="I22" s="7">
-        <v>80384</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>179</v>
       </c>
       <c r="N22" s="7">
-        <v>155443</v>
+        <v>182748</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,25 +2128,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>336</v>
+      </c>
+      <c r="D23" s="7">
+        <v>270436</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="7">
         <v>341</v>
       </c>
-      <c r="D23" s="7">
-        <v>288055</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" s="7">
-        <v>336</v>
-      </c>
       <c r="I23" s="7">
-        <v>255618</v>
+        <v>304022</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>49</v>
@@ -2167,7 +2161,7 @@
         <v>677</v>
       </c>
       <c r="N23" s="7">
-        <v>543673</v>
+        <v>574459</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>49</v>
@@ -2187,49 +2181,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
+        <v>60</v>
+      </c>
+      <c r="D24" s="7">
+        <v>45624</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24" s="7">
         <v>62</v>
       </c>
-      <c r="D24" s="7">
-        <v>49348</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="I24" s="7">
+        <v>52450</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H24" s="7">
-        <v>60</v>
-      </c>
-      <c r="I24" s="7">
-        <v>45358</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>122</v>
       </c>
       <c r="N24" s="7">
-        <v>94706</v>
+        <v>98074</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,49 +2232,49 @@
         <v>19</v>
       </c>
       <c r="C25" s="7">
+        <v>186</v>
+      </c>
+      <c r="D25" s="7">
+        <v>125203</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25" s="7">
         <v>210</v>
       </c>
-      <c r="D25" s="7">
-        <v>161913</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="I25" s="7">
+        <v>166507</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H25" s="7">
-        <v>186</v>
-      </c>
-      <c r="I25" s="7">
-        <v>127519</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>396</v>
       </c>
       <c r="N25" s="7">
-        <v>289432</v>
+        <v>291710</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,49 +2283,49 @@
         <v>29</v>
       </c>
       <c r="C26" s="7">
+        <v>362</v>
+      </c>
+      <c r="D26" s="7">
+        <v>256711</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" s="7">
         <v>398</v>
       </c>
-      <c r="D26" s="7">
-        <v>299360</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="I26" s="7">
+        <v>309313</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H26" s="7">
-        <v>362</v>
-      </c>
-      <c r="I26" s="7">
-        <v>257859</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>760</v>
       </c>
       <c r="N26" s="7">
-        <v>557219</v>
+        <v>566024</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,49 +2334,49 @@
         <v>39</v>
       </c>
       <c r="C27" s="7">
+        <v>319</v>
+      </c>
+      <c r="D27" s="7">
+        <v>227042</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H27" s="7">
         <v>302</v>
       </c>
-      <c r="D27" s="7">
-        <v>212030</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F27" s="7" t="s">
+      <c r="I27" s="7">
+        <v>230524</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H27" s="7">
-        <v>319</v>
-      </c>
-      <c r="I27" s="7">
-        <v>211381</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>621</v>
       </c>
       <c r="N27" s="7">
-        <v>423411</v>
+        <v>457566</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,25 +2385,25 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
+        <v>927</v>
+      </c>
+      <c r="D28" s="7">
+        <v>654580</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="7">
         <v>972</v>
       </c>
-      <c r="D28" s="7">
-        <v>722651</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="7">
-        <v>927</v>
-      </c>
       <c r="I28" s="7">
-        <v>642117</v>
+        <v>758794</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>49</v>
@@ -2424,7 +2418,7 @@
         <v>1899</v>
       </c>
       <c r="N28" s="7">
-        <v>1364768</v>
+        <v>1413375</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>49</v>
@@ -2438,7 +2432,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
